--- a/pred_ohlcv/54_21/2019-11-02 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>298496.7516934132</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>311371.6976934132</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>311371.6976934132</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>338653.1787934132</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>522468.6878934131</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>901621.7653934131</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3042791.827013244</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3307085.502513244</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3442351.837865587</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3274374.729265587</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3091624.715665587</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3219618.341465587</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3311895.758365587</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3626803.296858579</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3295747.963158579</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3018273.259958579</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3132453.607858579</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2923516.354858579</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2858958.628858579</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2946853.173558579</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3017967.501358579</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2994182.788058579</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2640909.54265858</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2557660.432258579</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2766552.527658579</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2840223.923358579</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2838876.512458579</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2825608.290058579</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2842396.020658579</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2821403.905658579</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2767866.767758579</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2871676.293958579</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3612305.072848528</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3836838.810565195</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3759212.590265194</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3759212.590265194</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3621366.001465194</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3621532.055965194</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3587628.259965194</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3587628.259965194</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3595608.759965194</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3643637.725365194</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3671518.997865194</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3639174.180102367</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3659310.829602367</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3659206.143202367</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3659206.143202367</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3687268.583602367</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3593286.809402368</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3593319.809402368</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3572808.809402368</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3640817.934902368</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3647820.116502367</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3837723.008202367</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3837723.008202367</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3860891.647702368</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3869254.781702368</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3869254.781702368</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3869885.062902368</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3867844.136702368</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3828645.049802368</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3618971.187802457</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3673942.552502457</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3673942.552502457</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3673942.552502457</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3653294.123205683</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3653755.535105683</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3650935.897305683</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3619408.668105683</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3489562.901505683</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3476220.902205683</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3481928.617605683</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3481928.617605683</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4334076.115801977</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4334076.115801977</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4276681.043701977</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4251847.104043936</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4277161.902743937</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4249748.816343936</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4246904.152243936</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4268209.804143936</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4288223.512743936</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4275744.485243936</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4172698.56431077</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4206254.21631077</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4201801.476010771</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>4201801.476010771</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4247031.04861077</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4187142.302247282</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4156501.760979848</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4094509.119679848</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4094520.119679848</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>4094520.119679848</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4113928.232979848</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4103562.561165706</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4083591.215265706</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4112201.900665706</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4064771.873165706</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4070213.436865706</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4052495.253865706</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4054206.580665706</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4054206.580665706</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4065837.607265706</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3992848.984965706</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3990128.349465706</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3990128.349465706</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3970764.927165706</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3980621.573465706</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3980621.573465706</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3998842.865565706</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3998842.865565706</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3985099.784765706</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3985099.784765706</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3959502.511565706</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6156232.759206686</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>6415096.105706686</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>7288408.005585574</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>7505392.835085241</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>7237109.956485241</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>7024007.32778524</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>7188693.19898187</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7527215.08018187</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7446116.96598187</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>7541376.99868187</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7499181.923078299</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>6979875.948278299</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>6692315.91456267</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>6310885.825790152</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>6028958.129990152</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>5711660.741990152</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>5322147.969490152</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>5887495.046190152</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>6025285.919390152</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>5962348.806090152</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>5833346.957590152</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>5552058.164790152</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>5334479.244090152</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>4859228.764667253</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>5166108.548842461</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>5116428.844342461</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>5096242.184242461</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>5091824.77784246</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>5130178.21364246</v>
       </c>
       <c r="H582">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3260669.104102539</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3090810.630302539</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3090810.630302539</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3086310.630302539</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3050800.630302539</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3063183.973602539</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3063183.973602539</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3071131.049302539</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3078819.281302539</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3121633.158102539</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3096667.452602539</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3096667.452602539</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3104339.004602539</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3092407.336502539</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3068805.913502539</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3070852.913502539</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3070717.913502539</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3070717.913502539</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3070717.913502539</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3071217.913502539</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3064617.913502539</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3042573.066902539</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-2964029.211002539</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-2964084.211002539</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-3002252.191202539</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-3002252.191202539</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-2998116.191202539</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-2998116.191202539</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-2998136.191202539</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-2986438.23110254</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-2989675.82790254</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-3001335.758202539</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-3001335.758202539</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-2952837.875602539</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-2952837.875602539</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-2988137.875602539</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-3007045.546302539</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-2997592.939502539</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-2997603.939502539</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-2993492.669802539</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-3010179.254302539</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-2992285.721602539</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-3029080.965002539</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-3029080.965002539</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-3060364.271702539</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-3054500.256602539</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-3073830.207802539</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-3116022.907402539</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-3116022.907402539</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-3073214.317302539</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-3073151.317302539</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-3069518.427402539</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-3072472.830302539</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-3072249.830302539</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-3072128.830302539</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-3012542.671502539</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-3057219.28850254</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-3056768.28850254</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-3057518.28850254</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>-3055892.28850254</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>-3058544.35210254</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>-3062177.82210254</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>-3062177.82210254</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>-3062990.17090254</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>-3039867.57030254</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>-3039867.57030254</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>-3040776.383402539</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>-3040776.383402539</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>-3014161.360102539</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>-3014161.360102539</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -24806,7 +24806,7 @@
         <v>-2913501.319502539</v>
       </c>
       <c r="H939">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="940" spans="1:8">
@@ -24832,7 +24832,7 @@
         <v>-2747450.66010254</v>
       </c>
       <c r="H940">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="941" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-2723033.86400254</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-2654722.64500254</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-2232483.266072215</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2404545.272896497</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2662829.752496497</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-2739525.723396497</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-2822962.476296497</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-2756236.457325255</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-2634420.924156505</v>
       </c>
       <c r="H1001">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-2671058.425056505</v>
       </c>
       <c r="H1002">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-2669932.328756505</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-2641754.763756505</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-2704102.289356505</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-2689217.28300196</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-2686418.145156506</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-2568554.855356506</v>
       </c>
       <c r="H1010">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-2474851.280763376</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-2312830.463991531</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-2090593.758291531</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-1657679.863591531</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-1440303.250291531</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-1706983.637791531</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-1791346.010391531</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-2113513.771944319</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2232835.088244319</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-2192458.251744319</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-2130501.571244319</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-2227516.052136772</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-2463745.833044319</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-2629881.589844319</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-2610752.020144319</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-2644441.609244319</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-2643478.029244319</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-2347796.197244319</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-2233570.780144319</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1500244.051338742</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1313245.048246368</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1425592.58496859</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1358244.51636859</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1331226.01816859</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-1451839.329366137</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-1977691.003766137</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-2300634.195566136</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-2248702.264766136</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-2152235.963166136</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-2135764.624166136</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-1902347.229266136</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-1902347.229266136</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-1950626.232766136</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-1954549.282966136</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-1954549.282966136</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-1910359.646166136</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-2857906.517499536</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-2833678.841899536</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-2850312.875899536</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-2850312.875899536</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-2932373.870199536</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-2993513.084899535</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-3209869.627499535</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-3209869.627499535</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-3158526.044499535</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-3150428.054799535</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-3100097.349599535</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-3138878.278499535</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-3129990.893299535</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-3076997.426099536</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-3048742.591999535</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>298496.7516934132</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>311371.6976934132</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>311371.6976934132</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>338653.1787934132</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>522468.6878934131</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>901621.7653934131</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>797805.7299934132</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>731602.5541934132</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>777477.9948934133</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1264089.815893413</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3042791.827013244</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3307085.502513244</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3442351.837865587</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3274374.729265587</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3091624.715665587</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>3219618.341465587</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3311895.758365587</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>3626803.296858579</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>3295747.963158579</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>3018273.259958579</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3132453.607858579</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2923516.354858579</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2858958.628858579</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2946853.173558579</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3017967.501358579</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2994182.788058579</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2640909.54265858</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2557660.432258579</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2766552.527658579</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2840223.923358579</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2838876.512458579</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2825608.290058579</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2842396.020658579</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2821403.905658579</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2767866.767758579</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2871676.293958579</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3612305.072848528</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>3836838.810565195</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>3759212.590265194</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>3759212.590265194</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3621366.001465194</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3621532.055965194</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>3587628.259965194</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3587628.259965194</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3595608.759965194</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3643637.725365194</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3671518.997865194</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3639174.180102367</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>3659310.829602367</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>3659206.143202367</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>3659206.143202367</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>3687268.583602367</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3593286.809402368</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>3593319.809402368</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>3572808.809402368</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>3640817.934902368</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>3647820.116502367</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>3837723.008202367</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>3837723.008202367</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>3860891.647702368</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>3869254.781702368</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3869254.781702368</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3869885.062902368</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>3867844.136702368</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3828645.049802368</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3618971.187802457</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3673942.552502457</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3673942.552502457</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3673942.552502457</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3653294.123205683</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3653755.535105683</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>3650935.897305683</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>3619408.668105683</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3489562.901505683</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3476220.902205683</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3481928.617605683</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3481928.617605683</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>4334076.115801977</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>4334076.115801977</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>4276681.043701977</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>4251847.104043936</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>4277161.902743937</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>4249748.816343936</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>4246904.152243936</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>4252936.335443936</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>4268209.804143936</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>4288223.512743936</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>4275744.485243936</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>4172698.56431077</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>4206254.21631077</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>4201801.476010771</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>4201801.476010771</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>4247031.04861077</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>4187142.302247282</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>4156501.760979848</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>4094509.119679848</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>4094520.119679848</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>4094520.119679848</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>4113928.232979848</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>4103562.561165706</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>4083591.215265706</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>4112201.900665706</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>4064771.873165706</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>4070213.436865706</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>4052495.253865706</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>4054206.580665706</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>4054206.580665706</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>4065837.607265706</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>3992848.984965706</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>3990128.349465706</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>3990128.349465706</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>3970764.927165706</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>3980621.573465706</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>3980621.573465706</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>3998842.865565706</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>3998842.865565706</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>3985099.784765706</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>3985099.784765706</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>3959502.511565706</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>6156232.759206686</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>6415096.105706686</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>6265386.007422965</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>6301301.360322965</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>6033552.560665573</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>6190807.360365573</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>5910312.415365573</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>6425098.640124491</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>6336105.702373916</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>6531470.651673917</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6393018.27269474</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6707521.627615565</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6707521.627615565</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>7125827.426815565</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>7288408.005585574</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>7505392.835085241</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>7237109.956485241</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>7024007.32778524</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>7188693.19898187</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7527215.08018187</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7446116.96598187</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>7541376.99868187</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7499181.923078299</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>6979875.948278299</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>6692315.91456267</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>6310885.825790152</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>6028958.129990152</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>5711660.741990152</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>5322147.969490152</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>5416604.524690152</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>5761101.743390152</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>5887495.046190152</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>6025285.919390152</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>5962348.806090152</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>5833346.957590152</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>5552058.164790152</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>5334479.244090152</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>4939059.224990152</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>5236050.401836473</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>5372835.066387638</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>5471000.516599487</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>5357028.0062307</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>5469507.5565307</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5447694.3106307</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>5447694.3106307</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>5194656.405630699</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>5287529.1516307</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>5187669.910830109</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>5274767.994130109</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>5226715.70393011</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>5296526.13443011</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>5289708.993730109</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>5293668.546274949</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>5293668.546274949</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>5157755.459474949</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>5199325.376074949</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>5574287.850030109</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>5514449.24233011</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>5539053.23073011</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>5534099.47093011</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>5572770.27443011</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>5572770.27443011</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>5520121.613706854</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>5557990.381983599</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>5557990.381983599</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>5493172.286983599</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>5516259.969583599</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>5367239.721360344</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>5326014.360860343</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>5313924.049060343</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3641099.070963991</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3568161.641100407</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3583519.642600407</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3496528.096900407</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3858232.093647982</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>3611377.129047982</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>3611377.129047982</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>3519195.329947982</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>3498259.910947982</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3567121.204638891</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3526715.076496034</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3480166.153496034</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>3507718.657638055</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>3504781.778338055</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>3483746.847238055</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>3452698.405516832</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>3578029.315516832</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>4431344.720766035</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>4630615.161266034</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4725479.723266034</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4343157.071166035</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4423907.371319707</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4531198.491919708</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>4676549.698319707</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>5143940.94833366</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>4889644.700567253</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>4778196.331067253</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>4936331.074067253</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>4859228.764667253</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>5004026.936267253</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>4992802.230267253</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>4964346.085167252</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>5166108.548842461</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>5116428.844342461</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>5096242.184242461</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>5047906.342342461</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>5091824.77784246</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>5149416.917442461</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>5143284.778642461</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>5134257.322042461</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>5130178.21364246</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>5135948.88974246</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>5075702.386104974</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>5011012.851304974</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>4717848.395404974</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>4667111.011704974</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>4727884.463204974</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>4674577.060004975</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>4637662.806904974</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>4553287.287804974</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>4638297.206704974</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>4516700.006704974</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>4554134.176404974</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>4662241.243404974</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>4594547.206004974</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>4659627.057104974</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>4640422.128804974</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>4656792.128804974</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>4862474.558458578</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>4817098.716858578</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>4817098.716858578</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>4747754.400358578</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>4747754.400358578</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>4845953.324758578</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>4549399.719158578</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>3849861.538958578</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-3260669.104102539</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-3090810.630302539</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-3090810.630302539</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-3086310.630302539</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-3050800.630302539</v>
       </c>
       <c r="H858">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-3063183.973602539</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-3063183.973602539</v>
       </c>
       <c r="H860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-3071131.049302539</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-3078819.281302539</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-3121633.158102539</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-3096667.452602539</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-3096667.452602539</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-3104339.004602539</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-3092407.336502539</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-3068805.913502539</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-3070852.913502539</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-3070717.913502539</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-3070717.913502539</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-3070717.913502539</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-3071217.913502539</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-3064617.913502539</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-3042573.066902539</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-2964029.211002539</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-2964084.211002539</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-2987707.339802539</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-2987707.339802539</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-3001316.78000254</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-3001315.78000254</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-3001315.78000254</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-3002134.38110254</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-2989665.82790254</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-2986036.83860254</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-2988047.253202539</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-2584289.68660254</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-2572217.48460254</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-2598153.02280254</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-2610734.968102539</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-2641219.274702539</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-2641219.274702539</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-2672303.369602539</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-2672281.424402539</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-2711344.268102539</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-2663666.827802539</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-2660972.30630254</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-2660972.30630254</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-2660901.825923649</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-2660901.825923649</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-2663897.469923649</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-2669566.522023649</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-2232483.266072215</v>
       </c>
       <c r="H995">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-2404545.272896497</v>
       </c>
       <c r="H996">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-2662829.752496497</v>
       </c>
       <c r="H997">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-2739525.723396497</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-2822962.476296497</v>
       </c>
       <c r="H999">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-2756236.457325255</v>
       </c>
       <c r="H1000">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-2634420.924156505</v>
       </c>
       <c r="H1001">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
@@ -26444,7 +26444,7 @@
         <v>-2671058.425056505</v>
       </c>
       <c r="H1002">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>-2669932.328756505</v>
       </c>
       <c r="H1003">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>-2641754.763756505</v>
       </c>
       <c r="H1004">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>-2704102.289356505</v>
       </c>
       <c r="H1005">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-2689217.28300196</v>
       </c>
       <c r="H1006">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-2686418.145156506</v>
       </c>
       <c r="H1009">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-2568554.855356506</v>
       </c>
       <c r="H1010">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-2474851.280763376</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-2312830.463991531</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-2090593.758291531</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-1657679.863591531</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-1440303.250291531</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-1706983.637791531</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-1791346.010391531</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-2113513.771944319</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-2232835.088244319</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-2192458.251744319</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-2130501.571244319</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-2227516.052136772</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-2463745.833044319</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-2629881.589844319</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-2610752.020144319</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-2644441.609244319</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-2643478.029244319</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-2347796.197244319</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-2233570.780144319</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-1500244.051338742</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-1313245.048246368</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-1425592.58496859</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-1358244.51636859</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-1331226.01816859</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-1451839.329366137</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-1977691.003766137</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-2300634.195566136</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-2248702.264766136</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-2152235.963166136</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-2135764.624166136</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-1902347.229266136</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-1902347.229266136</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-1950626.232766136</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-1954549.282966136</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-1954549.282966136</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-1910359.646166136</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-2857906.517499536</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-2833678.841899536</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-2850312.875899536</v>
       </c>
       <c r="H1212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-2850312.875899536</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-2932373.870199536</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-2993513.084899535</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-3209869.627499535</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-3209869.627499535</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-3158526.044499535</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-3150428.054799535</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-3100097.349599535</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-3138878.278499535</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-3129990.893299535</v>
       </c>
       <c r="H1222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-3076997.426099536</v>
       </c>
       <c r="H1223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-3048742.591999535</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-2884072.03855015</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
